--- a/masterclass1.xlsx
+++ b/masterclass1.xlsx
@@ -446,85 +446,93 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">## Freedom with AI Masterclass: A Detailed Analysis
-This masterclass, hosted by Vishnu Chowdhary and led by trainer Avinash Mada, focuses on the transformative power of AI, its impact on careers, and opportunities to leverage AI for income generation. 
-**Introduction and Setting the Context**
-Vishnu begins by engaging the audience with an image-based quiz, challenging them to differentiate real photos from AI-generated ones. This highlights the increasingly blurry line between reality and AI creations, emphasizing the need for critical content consumption and verification. 
-Vishnu then introduces Kunal Shah, founder of CRED, who warns about the potential job displacement due to AI's rapid progress. This emphasizes the urgency for upskilling and adaptability in the face of this technological revolution.
-**Real-World Examples of AI Disruption**
-Vishnu showcases real-world examples of AI replacing human workers, citing news articles about companies like Dukaan, Google, Tesla, Paytm, IBM, and others laying off employees due to AI automation. He stresses the importance of acquiring AI knowledge and skills to stay relevant in the job market.
-**Introducing Avinash Mada and His Journey**
-Vishnu shares Avinash’s compelling story, emphasizing his entrepreneurial spirit and resilience. Avinash's journey from facing a ₹40 lakh debt to becoming a successful AI mentor provides a powerful narrative that resonates with the audience and establishes his credibility.
-**Understanding AI and Its Implications**
-Avinash takes over the session, defining AI as a software that mimics human thinking and highlighting the ironic situation where AI now performs both mundane and creative tasks, often surpassing human capabilities.
-He explains the inner workings of AI, starting with foundation models trained on vast datasets to identify patterns and perform various tasks, including:
-* **Question answering**
-* **Sentiment analysis**
-* **Information extraction**
-* **Image captioning**
-* **Object recognition**
-* **Instruction following**
-**The Rise of ChatGPT and Its Significance**
-Avinash explains ChatGPT as a large language model trained on the entire World Wide Web, capable of answering almost any question humans can pose. He highlights how ChatGPT’s verbal IQ of 155, close to Einstein’s 160, signifies the power and potential of AI assistants readily available to everyone.
-Avinash stresses the disruptive nature of ChatGPT and AI in general, illustrating how AI can automate tasks and make workers more productive, leading to potential job displacement in the short term. However, he also emphasizes the long-term benefits of AI, including:
-* **Abundance of resources and knowledge**
-* **Improved efficiency and productivity**
-* **Enhanced problem-solving capabilities**
-**Demonstrating AI Capabilities through Videos**
-Avinash showcases 15 short videos demonstrating various AI capabilities, including:
-* **Text-to-image generation (Midjourney):** Creating realistic images from textual descriptions, including aging a person from childhood to old age.
-* **Text-to-music generation (Uberduck, Suno AI):** Generating lyrics, music, and vocals for a complete song from text prompts.
-* **AI-powered presentations (Gamma.app):** Creating professional presentations from textual requirements in minutes.
-* **Text-to-video generation (Sora AI):** Generating realistic video footage from text prompts, showcasing its potential in film-making and VFX.
-* **AI-driven movie production (Wonder Dynamics, RunwayML):** Replacing actors, generating scenes, and automating complex VFX tasks, democratizing film-making.
-* **AI-powered coding (Github Copilot):** Automating code generation and assistance, making developers significantly more productive.
-These videos showcase the vast potential of AI and how it's disrupting various industries, from art and music to film-making and software development.
-**Deep Dive into Prompt Engineering**
-Avinash emphasizes the importance of prompt engineering, defining it as the skill of communicating effectively with AI tools to extract their full potential. He clarifies that merely using basic prompts doesn't qualify someone as a prompt engineer. 
-He explains the key components of a professional prompt, including:
-* **Task:** The specific action desired from the AI.
-* **Instructions:** Guidance on how the AI should execute the task.
-* **Context:** Background information and purpose of the task.
-* **Parameters:** Rules and limitations for the AI's output.
-* **Input (optional):** Reference materials or additional information for the AI.
-Avinash details the different types of prompt engineers:
-* **Non-technical prompt engineers:** AI users who understand how AI tools work but don't possess coding knowledge.
-* **Technical prompt engineers:** AI developers and data scientists who build and train AI models.
-He highlights the future demand for both types of prompt engineers, stressing that prompt engineering is a crucial skill for future careers.
-**Building a Business using AI: A Practical Demonstration**
-Avinash demonstrates the practical application of AI tools by building a hypothetical blockchain course business, showcasing how to:
-* **Conduct market research (ChatGPT):** Generate an ideal customer persona (ICP) to understand target audience needs.
-* **Develop a curriculum (ChatGPT):** Generate a comprehensive course outline based on user needs.
-* **Write video scripts (ChatGPT):** Create engaging and informative video scripts for each course module.
-* **Automate video production (HeyGen):** Utilize AI avatars and voice deepfakes to generate course videos effortlessly.
-* **Build a website (10Web, Framer AI):** Leverage AI-powered website builders to create a professional online presence.
-* **Run marketing campaigns (ChatGPT):** Generate targeted Facebook Ads campaigns and compelling ad copy to reach potential customers.
-This practical demonstration reveals the power of AI in streamlining and automating various business processes, making entrepreneurship more accessible and efficient.
-**Exploring AI-Based Business Models**
-Avinash explores four profitable AI-based business models:
-* **Book writing (Amazon KDP, Midjourney, Canva):** Write and self-publish books using AI for content generation and graphic design.
-* **Freelancing/AI-powered agency (Fiverr, Upwork, AI tools):** Offer AI-enhanced services like content writing, marketing, and design on freelancing platforms.
-* **Selling print-on-demand products (Etsy, Midjourney, Canva):** Create and sell digital products like stickers and planners using AI for design and marketing.
-* **Developing AI-powered applications (ChatGPT API, Bubble, Airtable):** Build and sell apps utilizing ChatGPT’s API and no-code platforms.
-Avinash supports each model with real-world success stories, showcasing individuals who have achieved significant financial gains through these AI-driven ventures.
-**Call to Action and Freedom with AI Membership**
-Avinash encourages the audience to embrace AI, highlighting three possible paths:
-1. **Do nothing:** A detrimental option, neglecting the transformative power of AI.
-2. **Learn independently:** Challenging due to lack of guidance, structure, and accountability.
-3. **Partner with Freedom with AI:** The recommended path, offering structured learning, mentorship, and community support.
-He introduces the Freedom with AI Membership, comparing it to Netflix for AI knowledge and skills. He emphasizes the benefits, including:
-* **Actionable video courses:** Access to 100+ hours of video content covering AI fundamentals, applications, and prompt engineering.
-* **Community support:** Guidance and interaction with a global community of AI enthusiasts.
-* **Live classes:** Weekly live sessions covering advanced concepts and providing Q&amp;A opportunities.
-* **Accountability:** Weekly progress tracking and support to ensure implementation.
-**Membership Benefits and Value**
-Avinash details the membership offerings:
-* **Silver Membership (₹9,997 + GST):** Includes foundational courses, prompt engineering for dummies, job assistance, image prompt engineering, and bonuses like a prompt library, midjourney prompt ebook, and AI tools arsenal mastery.
-* **Gold Membership (₹13,997 + GST):** Includes all Silver benefits plus specialized courses for developers, business owners, and marketers, a chatbot building course, job assistance course, AI-enhanced Excel mastery, Canva membership, and a choice between Invideo or Microsoft 365.
-He positions the membership as a lifetime deal, stressing the value of the content and bonuses offered compared to their market value. He also highlights the program's positive reviews and high rating on Trustpilot, further reinforcing its credibility and effectiveness.
-**Personal Story and Closing Thoughts**
-Avinash shares a personal story about overcoming a period of crisis and depression, crediting AI as a life-saving tool that helped him rebuild his business and achieve success. He emphasizes the transformative power of AI and encourages the audience to seize this opportunity to secure their future and achieve their goals.
-The masterclass concludes with a Q&amp;A session, allowing participants to interact with Avinash and Vinay Palve, a 20-year-old success story from the program. The session ends with Avinash reiterating the benefits of the Freedom with AI Membership and encouraging attendees to take action towards a brighter future powered by AI.
+          <t xml:space="preserve">## Freedom with AI Masterclass: A Detailed Summary
+This document provides a comprehensive summary of the Freedom with AI masterclass hosted by Vishnu and led by Avinash Mada. It covers Avinash's personal journey, the importance of AI in today's world, a deep dive into ChatGPT and prompt engineering, various AI-powered business models, membership details, bonuses, and testimonials.
+**Avinash's Story: From Debt to Success**
+* At 17, Avinash faced a significant financial burden due to failed business ventures and inherited debt, totaling ₹40 lakhs.
+* Inspired by Kylie Jenner's success on Instagram, he dedicated himself to understanding the platform, overcoming criticism from friends and family.
+* Investing ₹70,000 in a course by Pena from Dominican Republic proved pivotal, leading him to his first international client.
+* His success story was featured in Times of India, highlighting his earnings of ₹80 lakhs in 6 months through Instagram marketing.
+* Avinash successfully cleared his debt and established himself as a leading AI mentor.
+**The Urgency of AI and its Impact**
+* **AI's rapid evolution:** Avinash emphasizes that AI's pace of development is exceeding expectations, creating both opportunities and threats.
+* **Job security:** He stresses that AI is causing job disruption, potentially impacting 80% of white-collar jobs within the next few years.
+* **Economic &amp; political climate:**  Recession, depression, and automation are converging, creating a perfect storm for layoffs, emphasizing the need for AI proficiency.
+* **AI as an armor:** Mastering AI can equip individuals to navigate these challenges and thrive in the future job market.
+**Understanding AI &amp; ChatGPT**
+* **Definition of AI:**  AI is a software or algorithm designed to mimic human thinking, automating both mundane and creative tasks.
+* **How AI works:**  A foundation model, trained on vast datasets of various formats (text, images, speech), learns patterns and executes tasks like question answering, image captioning, and instruction following.
+* **Importance of AI:**  7 out of the top 10 most valuable companies are prioritizing AI, signaling its crucial role in future technologies.
+* **ChatGPT's significance:** It's a large language model trained on the entire World Wide Web, capable of answering a vast range of questions and completing complex tasks. 
+* **How ChatGPT works:**  OpenAI utilizes "transformers", a technology mimicking human neural networks, to train ChatGPT on massive data, progressing through alpha, beta, and instructive stages.
+* **ChatGPT's capabilities:** With a verbal IQ of 155, ChatGPT possesses immense potential for coding, content creation, tutoring, research, and more.
+**The Power of AI: 15 Videos Showcase**
+A series of short videos demonstrate AI's capabilities across various domains:
+* **Text to image:**  Midjourney generating photorealistic images of a woman aging from childhood to 70, highlighting its speed and realism.
+* **Text to music:**  AI-generated lyrics, music, and vocals showcased using tools like Uberduck and Suno AI.
+* **AI-powered presentations:** Gamma.app creating professional presentations from text prompts, streamlining the process.
+* **Text to video:** Sora AI generating a video clip from a text prompt, showcasing its potential in filmmaking.
+* **AI-powered TV commercials:**  Runway ML creating a compelling commercial using ChatGPT for script and AI for visuals, demonstrating cost-effectiveness and speed.
+* **Wonder Dynamics for VFX:**  AI seamlessly integrating a human into a robot fight scene, showcasing its ability to simplify complex VFX tasks.
+* **Runway ML for animation:**  AI creating stunning animation, enabling individuals to produce high-quality content with minimal resources.
+* **Github co-pilot for coding:**  AI generating code, raising concerns about the future of traditional coding jobs.
+**Prompt Engineering: The Skill of the Century**
+* **Definition:**  Prompt engineering involves communicating with AI in a language it understands to obtain optimal results from AI tools.
+* **Importance:**  Demand for prompt engineers is skyrocketing, with millions of jobs projected in the coming years.
+* **Types of prompt engineers:**
+    * **Non-technical:**  AI users leveraging AI tools effectively without coding knowledge.
+    * **Technical:**  AI developers building and training large language models and AI tools. 
+* **Prompt structure:**
+    * **Task:** The desired action for the AI.
+    * **Instructions:** Specific guidelines for task execution.
+    * **Context:** Background information and purpose.
+    * **Parameters:**  Rules and limitations for AI.
+    * **Input:**  Optional references and additional data.
+* **Building a blockchain business with AI:**  Avinash demonstrates using ChatGPT for market research (ICP), curriculum development, scriptwriting, and marketing, highlighting AI's potential in various business stages.
+**Making Money with AI: 4 Business Models**
+Avinash presents four ways to generate income leveraging AI:
+* **Book writing:**  AI tools like ChatGPT and Midjourney can assist in writing, illustrating, and marketing books, with success stories like Lena Leads who generated $900,000 in revenue through self-published books on Amazon.
+* **Freelancing/AI automated agency:**  Utilizing AI to enhance productivity and expand service offerings, with examples of his uncle and his own agency generating significant income.
+* **Selling print-on-demand digital products:**  Using Midjourney and Canva to create and sell digital stickers and planners on platforms like Etsy, illustrated by success stories of Etsy sellers making millions through digital products.
+* **Building AI-powered tools:**  Leveraging ChatGPT's API and no-code platforms like Bubble to create and monetize AI tools, with examples of Lensa AI generating $16.2 million in revenue by using Stable Diffusion's API.
+**Freedom with AI Membership: Your Gateway to AI Mastery**
+Avinash introduces the Freedom with AI membership program, offering two tiers: Silver and Gold.
+**Membership Pillars:**
+* **Actionable video library:**  100+ hours (currently 200+) of video content covering various AI topics.
+* **Community support:**  Guidance and interaction with a global community of AI enthusiasts.
+* **Live classes:** Weekly live sessions for advanced concepts and Q&amp;A.
+* **Accountability &amp; tracking:**  Weekly progress tracking and motivation.
+**Silver Membership (₹9,997 + GST or $144):**
+* **Freedom with AI Blueprint course:**  Covers AI foundations, applications, and prompt engineering for beginners.
+* **Image prompt engineering courses:** Mastering Midjourney, Stable Diffusion, and Dall-E 3.
+* **500+ pre-made prompts:**  A library of prompts for various tasks and industries.
+* **Library of Midjourney prompts:**  An ebook containing advanced words and prompts for image generation.
+**Gold Membership (₹13,997 + GST or $202):**
+* **All Silver membership benefits.**
+* **AI for Developers course:**  Taught by Madhu MC, a leading data scientist, covering advanced AI concepts for developers.
+* **AI chatbot building course:**  Comprehensive guide to building chatbots using AI APIs.
+* **Job assistance course:**  Led by Rama Katunga, former Head of Data at Samsung, providing guidance on job applications and interview preparation.
+* **AI for self-employed &amp; marketers course:**  Taught by Leila Shankar, a growth and marketing consultant, showing how to leverage AI in businesses.
+* **AI-enhanced Excel mastery course:**  Learn to leverage AI in Excel for enhanced productivity.
+* **Canva 1-year membership (₹4,000 value):** Free access to Canva's design tools.
+* **Choice of InVideo or Microsoft 365 (₹5,000 value):**  Free access to either InVideo for video editing or Microsoft 365 suite.
+**Additional Bonuses:**
+* **Behind-the-scenes of Avinash's companies.**
+* **UI/UX design with AI course.**
+* **Weekly &amp; bi-weekly live calls.**
+* **Private AI community access.**
+**Testimonials:**
+Several testimonials highlight the program's impact on learners' lives, including:
+* **Rena from Germany:**  Utilized the program to become a self-published author on Amazon, becoming the sole breadwinner for her family.
+* **Vinay from Pune:**  Started an AI-powered email marketing agency, generating ₹2.5 lakhs per month at 20 years old.
+**Call to Action:**
+Avinash encourages participants to choose Path 3: partner with Freedom with AI to secure their future in the AI era. He emphasizes the program's value, affordability, and potential to transform lives.
+**Important Notes:**
+* Limited enrollment for both Gold and Silver memberships.
+* No-cost EMI options available for Indian customers.
+* Webinar recording available for enrolled members within the LMS.
+**Conclusion:**
+The Freedom with AI masterclass delivers a compelling message about the importance of AI, provides valuable insights into prompt engineering and AI-powered business models, and presents a robust membership program to equip individuals with the necessary skills to thrive in the AI-driven world.
 </t>
         </is>
       </c>
